--- a/project/station_dashboards/test/Test_Journey_save_station_routes_df.xlsx
+++ b/project/station_dashboards/test/Test_Journey_save_station_routes_df.xlsx
@@ -769,11 +769,7 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>TESCO</t>
@@ -925,11 +921,7 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>TEXACO</t>
@@ -1237,11 +1229,7 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>TEXACO</t>
